--- a/data/research_analysis.xlsx
+++ b/data/research_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottsirri/Documents/Workspaces/python_workspace/research_py/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DD8F08-82A7-1B4C-BB8E-DDD293587E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479207C1-9C4E-8740-A5CD-FBB7226102BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6700" yWindow="500" windowWidth="21720" windowHeight="16560" xr2:uid="{8A943F5B-AD52-5A4D-9F30-E531DA833BE0}"/>
   </bookViews>

--- a/data/research_analysis.xlsx
+++ b/data/research_analysis.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottsirri/Documents/Workspaces/python_workspace/research_py/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E839D4C8-0B06-9E47-BFD6-25F1CEF9B301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E65DE9A-96C1-5B41-83EF-F455253E9977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9100" yWindow="500" windowWidth="19320" windowHeight="16560" xr2:uid="{8A943F5B-AD52-5A4D-9F30-E531DA833BE0}"/>
+    <workbookView xWindow="4940" yWindow="500" windowWidth="23480" windowHeight="16560" xr2:uid="{8A943F5B-AD52-5A4D-9F30-E531DA833BE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$M$2:$M$1483</definedName>
@@ -46,6 +45,7 @@
   <authors>
     <author>tc={0C2B8F42-35B0-C84C-AB39-98CC6A3BC7F5}</author>
     <author>tc={A80400BD-AE90-2243-B3F6-D5EFE258AF9A}</author>
+    <author>tc={3061E202-C1E8-A545-9B38-950D47321C49}</author>
     <author>tc={5E812B0F-366A-4B4E-906A-CC9F558B1543}</author>
   </authors>
   <commentList>
@@ -65,7 +65,15 @@
     Note that --- denotes trials were run for that value but no valid selectors were produced, as opposed to blank values for which there were no trials</t>
       </text>
     </comment>
-    <comment ref="W66" authorId="2" shapeId="0" xr:uid="{5E812B0F-366A-4B4E-906A-CC9F558B1543}">
+    <comment ref="AB46" authorId="2" shapeId="0" xr:uid="{3061E202-C1E8-A545-9B38-950D47321C49}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    ???</t>
+      </text>
+    </comment>
+    <comment ref="W66" authorId="3" shapeId="0" xr:uid="{5E812B0F-366A-4B4E-906A-CC9F558B1543}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -222,7 +230,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -251,6 +259,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -665,6 +679,9 @@
   <threadedComment ref="P20" dT="2022-11-10T04:58:17.25" personId="{3074B47B-EB19-F34E-83E9-69071F33E639}" id="{A80400BD-AE90-2243-B3F6-D5EFE258AF9A}">
     <text>Note that --- denotes trials were run for that value but no valid selectors were produced, as opposed to blank values for which there were no trials</text>
   </threadedComment>
+  <threadedComment ref="AB46" dT="2022-11-10T05:22:34.65" personId="{3074B47B-EB19-F34E-83E9-69071F33E639}" id="{3061E202-C1E8-A545-9B38-950D47321C49}">
+    <text>???</text>
+  </threadedComment>
   <threadedComment ref="W66" dT="2022-11-10T04:14:50.89" personId="{3074B47B-EB19-F34E-83E9-69071F33E639}" id="{5E812B0F-366A-4B4E-906A-CC9F558B1543}">
     <text>These are simply placeholders to remind me that the solve time on these was inordinately long, never even completed one iteration</text>
   </threadedComment>
@@ -676,7 +693,7 @@
   <dimension ref="A1:AJ4838"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScale="93" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="AI46" sqref="AI46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -74033,16 +74050,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BFBB45-9A3F-4E41-B167-D50B0261B03D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>